--- a/TestWorbook.xlsx
+++ b/TestWorbook.xlsx
@@ -24,42 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>sdfokfkgnoasdndf</t>
-  </si>
-  <si>
-    <t>sadfa</t>
-  </si>
-  <si>
-    <t>sfd</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>gfa</t>
-  </si>
-  <si>
-    <t>fdg</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>dga</t>
-  </si>
-  <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>dgg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>afsdgagf</t>
+  </si>
+  <si>
+    <t>asgd</t>
+  </si>
+  <si>
+    <t>agsd</t>
+  </si>
+  <si>
+    <t>asgdas</t>
+  </si>
+  <si>
+    <t>sdgasg</t>
+  </si>
+  <si>
+    <t>asg</t>
+  </si>
+  <si>
+    <t>asdg</t>
   </si>
 </sst>
 </file>
@@ -377,72 +362,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:E18"/>
+  <dimension ref="C4:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
